--- a/data/dividends_info_20260215.xlsx
+++ b/data/dividends_info_20260215.xlsx
@@ -3056,7 +3056,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>ASSICURAZIONI GENERALI S.p.A.</t>
+          <t>SALVATORE FERRAGAMO S.p.A.</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -3073,7 +3073,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>UNIDATA S.p.A.</t>
+          <t>Leonardo S.p.A.</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -3083,14 +3083,14 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>UNIDATA S.p.A.</t>
+          <t>GEOX S.p.A.</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -3100,14 +3100,14 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>TESMEC S.p.A.</t>
+          <t>GEOX S.p.A.</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3124,7 +3124,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>TESMEC S.p.A.</t>
+          <t>Esprinet S.p.A.</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3134,14 +3134,14 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>TELECOM ITALIA S.p.A.</t>
+          <t>ERG S.p.A.</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3158,7 +3158,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>WIIT S.p.A.</t>
+          <t>Cementir Holding N.V.</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3168,14 +3168,14 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>WEBUILD S.p.A.</t>
+          <t>Bper Banca S.P.A.</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -3192,7 +3192,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>SYS-DAT S.p.A.</t>
+          <t>WIIT S.p.A.</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3202,14 +3202,14 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>SALVATORE FERRAGAMO S.p.A.</t>
+          <t>WIIT S.p.A.</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -3219,14 +3219,14 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>WIIT S.p.A.</t>
+          <t>WEBUILD S.p.A.</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3243,7 +3243,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Leonardo S.p.A.</t>
+          <t>UNIDATA S.p.A.</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -3253,14 +3253,14 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>GEOX S.p.A.</t>
+          <t>UNIDATA S.p.A.</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3270,14 +3270,14 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>GEOX S.p.A.</t>
+          <t>TESMEC S.p.A.</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3294,7 +3294,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Basic Net S.p.A.</t>
+          <t>SYS-DAT S.p.A.</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3304,14 +3304,14 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Basic Net S.p.A.</t>
+          <t>TELECOM ITALIA S.p.A.</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -3328,7 +3328,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Bper Banca S.P.A.</t>
+          <t>Basic Net S.p.A.</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -3338,14 +3338,14 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Cementir Holding N.V.</t>
+          <t>ASSICURAZIONI GENERALI S.p.A.</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -3362,7 +3362,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ERG S.p.A.</t>
+          <t>SALVATORE FERRAGAMO S.p.A.</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -3372,14 +3372,14 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Esprinet S.p.A.</t>
+          <t>TESMEC S.p.A.</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -3389,14 +3389,14 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>SALVATORE FERRAGAMO S.p.A.</t>
+          <t>Basic Net S.p.A.</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -3413,7 +3413,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BANCA MEDIOLANUM S.p.A.</t>
+          <t>CALTAGIRONE S.p.A.</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -3430,7 +3430,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>BANCA IFIS S.p.A.</t>
+          <t>Fiera Milano S.p.A</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3447,7 +3447,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BANCA IFIS S.p.A.</t>
+          <t>Orsero S.p.A.</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3464,7 +3464,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Avio S.p.A.</t>
+          <t>GEFRAN S.p.A.</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -3481,7 +3481,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Aquafil S.p.A.</t>
+          <t>Enervit S.p.A.</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -3498,7 +3498,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Alerion Clean Power S.p.A.</t>
+          <t>ERG S.p.A.</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -3508,14 +3508,14 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>TXT E-SOLUTIONS S.p.A.</t>
+          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -3532,7 +3532,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BANCO DI DESIO E DELLA BRIANZA S.p.A.</t>
+          <t>CY4Gate S.p.A.</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -3549,7 +3549,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ASSICURAZIONI GENERALI S.p.A.</t>
+          <t>CULTI Milano S.p.A.</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -3559,14 +3559,14 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>ZIGNAGO VETRO S.p.A.</t>
+          <t>EQUITA GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -3583,7 +3583,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Tinexta S.p.A.</t>
+          <t>CREDITO EMILIANO S.p.A.</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -3593,14 +3593,14 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>TELECOM ITALIA S.p.A.</t>
+          <t>AEFFE S.p.A.</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -3617,7 +3617,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>CIRCLE S.p.A.</t>
+          <t>ASSICURAZIONI GENERALI S.p.A.</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -3627,14 +3627,14 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>CREDITO EMILIANO S.p.A.</t>
+          <t>Fiera Milano S.p.A</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -3651,7 +3651,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>CULTI Milano S.p.A.</t>
+          <t>Aquafil S.p.A.</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -3668,7 +3668,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>CY4Gate S.p.A.</t>
+          <t>Avio S.p.A.</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -3685,7 +3685,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
+          <t>BANCA IFIS S.p.A.</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -3702,7 +3702,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
+          <t>BANCA IFIS S.p.A.</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -3719,7 +3719,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>E.P.H. S.p.A.</t>
+          <t>BANCA MEDIOLANUM S.p.A.</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -3736,7 +3736,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>EQUITA GROUP S.p.A.</t>
+          <t>BANCO DI DESIO E DELLA BRIANZA S.p.A.</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -3753,7 +3753,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>CALTAGIRONE S.p.A.</t>
+          <t>CIRCLE S.p.A.</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -3763,14 +3763,14 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Sesa S.p.A.</t>
+          <t>Alerion Clean Power S.p.A.</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -3780,14 +3780,14 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Additional Periodic Financial Information</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>AEFFE S.p.A.</t>
+          <t>FINE FOODS &amp; Pharmaceuticals N.T.M. S.p.A.</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -3797,14 +3797,14 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>REPLY S.p.A.</t>
+          <t>E.P.H. S.p.A.</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -3821,7 +3821,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>ERG S.p.A.</t>
+          <t>TXT E-SOLUTIONS S.p.A.</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -3831,14 +3831,14 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>SAFILO GROUP S.p.A.</t>
+          <t>TELECOM ITALIA S.p.A.</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -3848,14 +3848,14 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>ACEA S.p.A.</t>
+          <t>Sesa S.p.A.</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -3865,14 +3865,14 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Additional Periodic Financial Information</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>AEFFE S.p.A.</t>
+          <t>SAFILO GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -3889,7 +3889,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Enervit S.p.A.</t>
+          <t>REPLY S.p.A.</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -3906,7 +3906,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Orsero S.p.A.</t>
+          <t>ACEA S.p.A.</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -3923,7 +3923,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Fiera Milano S.p.A</t>
+          <t>AEFFE S.p.A.</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -3940,7 +3940,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Fiera Milano S.p.A</t>
+          <t>Tinexta S.p.A.</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -3957,7 +3957,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>FINE FOODS &amp; Pharmaceuticals N.T.M. S.p.A.</t>
+          <t>ZIGNAGO VETRO S.p.A.</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -3974,7 +3974,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>GEFRAN S.p.A.</t>
+          <t>D'AMICO INTERNATIONAL SHIPPING S.A.</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -3984,14 +3984,14 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>DE' LONGHI S.p.A.</t>
+          <t>BIESSE S.p.A.</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -4008,7 +4008,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>CY4Gate S.p.A.</t>
+          <t>CEMBRE S.p.A.</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -4018,14 +4018,14 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>DE' LONGHI S.p.A.</t>
+          <t>CY4Gate S.p.A.</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -4042,7 +4042,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>EL.EN. S.p.A.</t>
+          <t>Neodecortech S.p.A.</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -4059,7 +4059,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>EMAK S.p.A.</t>
+          <t>EL.EN. S.p.A.</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -4076,7 +4076,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>LU-VE S.p.A.</t>
+          <t>EMAK S.p.A.</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -4093,7 +4093,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Impianti S.p.A.</t>
+          <t>IRCE s.p.a</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -4110,7 +4110,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>LU-VE S.p.A.</t>
+          <t>Impianti S.p.A.</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -4120,14 +4120,14 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>MARR S.p.A.</t>
+          <t>LU-VE S.p.A.</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -4144,7 +4144,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>MARR S.p.A.</t>
+          <t>LU-VE S.p.A.</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -4161,7 +4161,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Neodecortech S.p.A.</t>
+          <t>MARR S.p.A.</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -4178,7 +4178,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>IRCE s.p.a</t>
+          <t>MARR S.p.A.</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -4188,14 +4188,14 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>BIESSE S.p.A.</t>
+          <t>DE' LONGHI S.p.A.</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -4212,7 +4212,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>CEMBRE S.p.A.</t>
+          <t>DE' LONGHI S.p.A.</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -4222,14 +4222,14 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>AEROPORTO GUGLIELMO MARCONI DI BOLOGNA S.p.A.</t>
+          <t>REVO Insurance S.p.A.</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -4246,7 +4246,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>CELLULARLINE S.p.A.</t>
+          <t>TAMBURI INVESTMENT PARTNERS S.p.A.</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -4263,7 +4263,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Acinque S.p.A.</t>
+          <t>TECMA SOLUTIONS S.p.A.</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -4280,7 +4280,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>AEROPORTO GUGLIELMO MARCONI DI BOLOGNA S.p.A.</t>
+          <t>Triboo S.p.A.</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -4290,14 +4290,14 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>TAMBURI INVESTMENT PARTNERS S.p.A.</t>
+          <t>NEWPRINCES</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -4307,14 +4307,14 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>REVO Insurance S.p.A.</t>
+          <t>Gabetti Property Solutions S.p.A.</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -4331,7 +4331,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>CELLULARLINE S.p.A.</t>
+          <t>AEROPORTO GUGLIELMO MARCONI DI BOLOGNA S.p.A.</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -4341,14 +4341,14 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>TECMA SOLUTIONS S.p.A.</t>
+          <t>AEROPORTO GUGLIELMO MARCONI DI BOLOGNA S.p.A.</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -4358,14 +4358,14 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>CENTRALE DEL LATTE D'ITALIA S.p.A.</t>
+          <t>Acinque S.p.A.</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -4382,7 +4382,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Dexelance S.p.A.</t>
+          <t>CELLULARLINE S.p.A.</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -4392,14 +4392,14 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Dexelance S.p.A.</t>
+          <t>CENTRALE DEL LATTE D'ITALIA S.p.A.</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -4416,7 +4416,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>EUROTECH S.p.A.</t>
+          <t>MOLTIPLY GROUP S.p.A.</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -4433,7 +4433,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>GAROFALO HEALTH CARE S.p.A.</t>
+          <t>CELLULARLINE S.p.A.</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -4443,14 +4443,14 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Gabetti Property Solutions S.p.A.</t>
+          <t>Comer Industries S.p.A.</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -4467,7 +4467,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>MOLTIPLY GROUP S.p.A.</t>
+          <t>Dexelance S.p.A.</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -4477,14 +4477,14 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>NEWPRINCES</t>
+          <t>Dexelance S.p.A.</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -4494,14 +4494,14 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Comer Industries S.p.A.</t>
+          <t>EUROTECH S.p.A.</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -4518,7 +4518,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Triboo S.p.A.</t>
+          <t>GAROFALO HEALTH CARE S.p.A.</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -4535,7 +4535,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Poste Italiane S.p.A.</t>
+          <t>FAE Technology Società Benefit S.p.A.</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -4545,14 +4545,14 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Annual Preliminary Results</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>I.M.D. International Medical Devices S.p.A.</t>
+          <t>I GRANDI VIAGGI S.p.A.</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -4562,14 +4562,14 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Additional Periodic Financial Information</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Esprinet S.p.A.</t>
+          <t>A2A S.p.A.</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -4579,14 +4579,14 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Analyst Presentation</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>FAE Technology Società Benefit S.p.A.</t>
+          <t>Industrie De Nora S.p.A.</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -4596,14 +4596,14 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Annual Preliminary Results</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>I GRANDI VIAGGI S.p.A.</t>
+          <t>SOLUTIONS CAPITAL MANAGEMENT SIM S.p.A.</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -4613,14 +4613,14 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Additional Periodic Financial Information</t>
+          <t>Bod Annual Report</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Pharmanutra S.p.A.</t>
+          <t>Poste Italiane S.p.A.</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -4637,7 +4637,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Industrie De Nora S.p.A.</t>
+          <t>Pharmanutra S.p.A.</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -4654,7 +4654,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A2A S.p.A.</t>
+          <t>Esprinet S.p.A.</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -4664,14 +4664,14 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Bod Annual Report</t>
+          <t>Analyst Presentation</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>SOLUTIONS CAPITAL MANAGEMENT SIM S.p.A.</t>
+          <t>I.M.D. International Medical Devices S.p.A.</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -4714,253 +4714,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Stock</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>A2A S.p.A.</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2026-03-17</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AEROPORTO GUGLIELMO MARCONI DI BOLOGNA S.p.A.</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2026-03-16</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>AEROPORTO GUGLIELMO MARCONI DI BOLOGNA S.p.A.</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2026-03-16</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Acinque S.p.A.</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2026-03-16</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>CELLULARLINE S.p.A.</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2026-03-16</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Esprinet S.p.A.</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2026-03-17</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Analyst Presentation</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>FAE Technology Società Benefit S.p.A.</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2026-03-17</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Annual Preliminary Results</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>I GRANDI VIAGGI S.p.A.</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2026-03-17</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Additional Periodic Financial Information</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>I.M.D. International Medical Devices S.p.A.</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2026-03-17</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Industrie De Nora S.p.A.</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2026-03-17</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Pharmanutra S.p.A.</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2026-03-17</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Poste Italiane S.p.A.</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2026-03-17</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>SOLUTIONS CAPITAL MANAGEMENT SIM S.p.A.</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2026-03-17</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Bod Annual Report</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>